--- a/Extension Docente/Archivos de Salida/01- ENERO/02- DEFINITIVA/Calculos.xlsx
+++ b/Extension Docente/Archivos de Salida/01- ENERO/02- DEFINITIVA/Calculos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>ANSES</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>AP, EMPLEADO</t>
+  </si>
+  <si>
+    <t>157823589.57</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <dimension ref="E7:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +594,9 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.3">
